--- a/host/static/Users.xlsx
+++ b/host/static/Users.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -402,41 +402,91 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
           <t>michael</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>bob</t>
+          <t>Graham Gibson</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>computer science</t>
+          <t>Queen's University</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>cs</t>
+          <t>CMC</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>queens</t>
+          <t>CMC</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>22</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>1010101</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Mackenzie</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>42132</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Graham Gibson</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Queen's University</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>CMC</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>CMC</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1111111</t>
         </is>
       </c>
     </row>

--- a/host/static/Users.xlsx
+++ b/host/static/Users.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -402,7 +402,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -447,7 +447,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -481,10 +481,55 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
+        <is>
+          <t>1111111</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>9</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>joe</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>42132</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Graham Gibson</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Queen's University</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>CMC</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>CMC</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>1111111</t>
         </is>

--- a/host/static/Users.xlsx
+++ b/host/static/Users.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -402,7 +402,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -411,7 +411,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12345</t>
+          <t>100-534</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -421,115 +421,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>Computer Science</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>Queen's University</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>CMC</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>CMC</t>
-        </is>
-      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>Academic Machine Dependent</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
-        <is>
-          <t>1010101</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>8</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Mackenzie</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>42132</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Graham Gibson</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Queen's University</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>CMC</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>CMC</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>1111111</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>9</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>joe</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>42132</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Graham Gibson</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Queen's University</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>CMC</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>CMC</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
         <is>
           <t>1111111</t>
         </is>

--- a/host/static/Users.xlsx
+++ b/host/static/Users.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -402,16 +402,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>michael</t>
+          <t>James Bond</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12345</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -421,117 +421,27 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>Computer Science</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>Queen's University</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>CMC</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>CMC</t>
-        </is>
-      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>Academic Machine Dependent</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1010101</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>8</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Mackenzie</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>42132</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Graham Gibson</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Queen's University</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>CMC</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>CMC</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>1111111</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>9</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>joe</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>42132</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Graham Gibson</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Queen's University</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>CMC</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>CMC</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>1111111</t>
+          <t>0100100</t>
         </is>
       </c>
     </row>
